--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -451,1079 +451,1452 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>006314</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>中融策略优选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>006315</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>中融策略优选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003145</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融竞争优势股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002628</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>71.68</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002629</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>71.68</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010064</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010065</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1533,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,15 +1927,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1574,26 +1957,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003308</t>
+          <t>519133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投睿利灵活配置混合A</t>
+          <t>海富通改革驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.64</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1602,26 +1995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004635</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投睿利灵活配置混合C</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.64</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1630,26 +2033,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001736</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰优加生活股票</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1658,26 +2071,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004148</t>
+          <t>009864</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰多策略精选混合</t>
+          <t>招商景气优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>55.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1686,26 +2109,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005169</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合A</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>26.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1714,26 +2147,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1742,26 +2185,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>010790</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>海富通均衡甄选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>37.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1770,26 +2223,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>24.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1798,26 +2261,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1826,26 +2299,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9759</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1854,26 +2337,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1882,25 +2375,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9086</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1910,25 +2413,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7917</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,26 +2451,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>001736</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>圆信永丰优加生活股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1966,26 +2489,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1994,26 +2527,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2022,26 +2565,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>240009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>华宝先进成长混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2050,26 +2603,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2641,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2106,26 +2679,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2134,26 +2717,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>008075</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>招商核心优选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2162,26 +2755,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>010064</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>圆信永丰兴研灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>24.14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2190,26 +2793,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>006364</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>招商丰韵混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2218,26 +2831,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>009865</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>招商景气优选股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2246,25 +2869,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>217005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>招商先锋混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2274,26 +2907,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2302,26 +2945,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2330,26 +2983,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010064</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2358,26 +3021,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010065</t>
+          <t>217009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
+          <t>招商核心价值混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2386,26 +3059,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>217005</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商先锋混合</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2414,26 +3097,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2960</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2442,26 +3135,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005570</t>
+          <t>009347</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中融智选红利股票C</t>
+          <t>中融价值成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2470,26 +3173,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005574</t>
+          <t>004148</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴悦秀纯债债券C</t>
+          <t>圆信永丰多策略精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2498,26 +3211,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>005580</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>光大保德信晟利债券C</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2526,25 +3249,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005592</t>
+          <t>010791</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长安裕腾灵活配置混合C</t>
+          <t>海富通均衡甄选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2554,26 +3287,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005591</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>汇添富鑫永定期开放债券C</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2582,26 +3325,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2610,26 +3363,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009347</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2638,25 +3401,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009348</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合C</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2666,26 +3439,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009350</t>
+          <t>005592</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>新疆前海联合添泽债券C</t>
+          <t>长安裕腾灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>8</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2694,26 +3477,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>001037</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>国投瑞银锐意改革灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2722,26 +3515,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2750,26 +3553,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>501038</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>银华明择多策略定期开放混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>7</v>
+          <t>74.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2778,26 +3591,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2806,26 +3629,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2834,26 +3667,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2862,26 +3705,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>006365</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>招商丰韵混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2890,26 +3743,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2918,26 +3781,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华宝先进成长混合</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2946,26 +3819,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2974,26 +3857,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>9</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -3002,26 +3895,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>9</v>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3030,26 +3933,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>008245</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>圆信永丰致优混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -3058,26 +3971,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>007146</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>鹏华研究智选混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -3086,26 +4009,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>002628</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>招商安博灵活配置混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>5</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -3114,26 +4047,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>5</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3142,26 +4085,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>006364</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>招商丰韵混合A</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3170,26 +4123,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>006365</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>招商丰韵混合C</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -3198,26 +4161,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -3226,26 +4199,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3254,26 +4237,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3282,26 +4275,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>010065</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>圆信永丰兴研灵活配置混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3310,26 +4313,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>5</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3338,26 +4351,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3366,26 +4389,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3394,26 +4427,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>001037</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国投瑞银锐意改革灵活配置混合</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>6</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3422,26 +4465,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>501038</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>银华明择多策略定期开放混合</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>74.83</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>10</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3450,25 +4503,35 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>008076</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>招商核心优选股票C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3478,26 +4541,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3506,26 +4579,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>009348</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>中融价值成长6个月持有期混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>9</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -3534,26 +4617,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>010790</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合A</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>2</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3562,26 +4655,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>010791</t>
+          <t>200016</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合C</t>
+          <t>长城稳健成长灵活配置混合</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3590,26 +4693,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>2</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3618,26 +4731,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>10</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3646,26 +4769,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>10</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3674,26 +4807,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>005169</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>华泰保兴策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>2</v>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -3702,26 +4845,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>10</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -3730,26 +4883,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>519133</t>
+          <t>008246</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海富通改革驱动灵活配置混合</t>
+          <t>圆信永丰致优混合C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>2</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -3758,26 +4921,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>7</v>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3786,26 +4959,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>7</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -3814,26 +4997,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>7</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -3842,26 +5035,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>005170</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>华泰保兴策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>7</v>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -3870,26 +5073,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>5</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -3898,26 +5111,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>005580</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>光大保德信晟利债券C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>4</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3926,26 +5149,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>002629</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>招商安博灵活配置混合C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>4</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -3954,26 +5187,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>86.98</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>10</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -3982,26 +5225,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>6</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4010,26 +5263,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>002628</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合A</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4038,26 +5301,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>002629</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合C</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>10</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4066,26 +5339,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4094,26 +5377,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>200016</t>
+          <t>003308</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>长城稳健成长灵活配置混合</t>
+          <t>中信建投睿利灵活配置混合A</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>62.27</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -4122,26 +5415,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>007243</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>安信核心竞争力灵活配置混合A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>8</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -4150,26 +5453,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>8</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -4178,26 +5491,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>008075</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>招商核心优选股票A</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>2</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -4206,26 +5529,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>008076</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>招商核心优选股票C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4234,26 +5567,36 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>007244</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>安信核心竞争力灵活配置混合C</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>10</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4262,26 +5605,36 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>008246</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合C</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4290,26 +5643,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>005591</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>汇添富鑫永定期开放债券C</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4318,26 +5681,36 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -4346,26 +5719,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>7</v>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -4374,26 +5757,36 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>004635</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>中信建投睿利灵活配置混合C</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>7</v>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -4402,26 +5795,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>005574</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
+          <t>东吴悦秀纯债债券C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>5</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -4430,26 +5827,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>009350</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
+          <t>新疆前海联合添泽债券C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -4458,26 +5859,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>4</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5803,7 +5804,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -5835,7 +5835,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -5867,7 +5866,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -5883,6 +5881,3476 @@
       </c>
       <c r="H105" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0930</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6709</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6509</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6322</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9335,7 +9336,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>78.89</t>
@@ -9351,6 +9351,1316 @@
       </c>
       <c r="H91" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10666,4 +10667,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10675,7 +10676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10686,17 +10687,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10706,14 +10727,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.17</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -10722,14 +10765,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.1</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -10738,14 +10803,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>104</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.76</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10754,13 +10841,3037 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8663</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4278</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3763</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0468</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4641</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13770,7 +13771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13781,17 +13782,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13801,14 +13822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.77</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13817,14 +13860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.17</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -13833,14 +13898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.1</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13849,14 +13936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>104</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.76</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -13865,13 +13974,1915 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6817</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8752</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>104</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15765,7 +15766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15776,17 +15777,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15796,14 +15817,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.03</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -15812,14 +15855,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.77</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -15828,14 +15893,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.17</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15844,14 +15931,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.1</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -15860,14 +15969,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>104</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.76</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -15876,13 +16007,1549 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>28.85</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>32.03</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>14.17</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
-        <v>31.76</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>104</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.76</v>
       </c>
     </row>
@@ -600,6 +617,2758 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7851</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4243,7 +7012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7337,7 +10106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8647,7 +11416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12116,7 +14885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16103,7 +18872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
+++ b/数据整理/stocks/A股/深证主板/002541-鸿路钢构.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>35.49</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>28.85</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>32.03</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>41.77</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>14.17</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>36.1</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>31.76</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1485 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2089,2568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7439</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6817</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010219</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富稳健添益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3368,7 +7402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5018,7 +9052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7012,7 +11046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10106,7 +14140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11416,7 +15450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14885,7 +18919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18870,1459 +22904,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7341</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9368</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4609</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1875</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1553</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0943</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8454</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8221</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7128</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010064</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6201</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5105</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006314</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4679</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4347</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2742</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2681</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1848</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1464</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002628</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>71.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0550</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010065</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003145</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中融竞争优势股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006315</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中融策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002629</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>71.68</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>